--- a/venv/data/睿博士.xlsx
+++ b/venv/data/睿博士.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1043">
   <si>
     <t>页面名称</t>
   </si>
@@ -2852,6 +2852,353 @@
   </si>
   <si>
     <t>com.zwcode.p6slite:id/tv_value</t>
+  </si>
+  <si>
+    <t>安装设置</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/rl</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/rl_monitor_view</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/ll_verify_info</t>
+  </si>
+  <si>
+    <t>[36,889][1044,1079]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/frag_dev_mirror_center</t>
+  </si>
+  <si>
+    <t>[36,903][1044,1065]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/switch_view_layout</t>
+  </si>
+  <si>
+    <t>[84,953][264,1014]</t>
+  </si>
+  <si>
+    <t>上下翻转</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/param_switch</t>
+  </si>
+  <si>
+    <t>[852,948][996,1020]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/param_switch_cover</t>
+  </si>
+  <si>
+    <t>15:18</t>
+  </si>
+  <si>
+    <t>[773,0][1011,96]</t>
+  </si>
+  <si>
+    <t>[773,0][813,96]</t>
+  </si>
+  <si>
+    <t>[813,0][919,96]</t>
+  </si>
+  <si>
+    <t>[813,30][871,66]</t>
+  </si>
+  <si>
+    <t>[815,30][871,66]</t>
+  </si>
+  <si>
+    <t>[871,30][919,66]</t>
+  </si>
+  <si>
+    <t>安装设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/param_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/param_switch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[405,96][675,240]</t>
+  </si>
+  <si>
+    <t>摄像机设置</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/layout_info</t>
+  </si>
+  <si>
+    <t>[42,276][1038,676]</t>
+  </si>
+  <si>
+    <t>[90,330][834,391]</t>
+  </si>
+  <si>
+    <t>000202</t>
+  </si>
+  <si>
+    <t>[882,318][990,403]</t>
+  </si>
+  <si>
+    <t>在线</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/view1</t>
+  </si>
+  <si>
+    <t>[42,439][1038,442]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/img1</t>
+  </si>
+  <si>
+    <t>[90,511][138,541]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/tv_charge</t>
+  </si>
+  <si>
+    <t>[168,498][906,555]</t>
+  </si>
+  <si>
+    <t>电池电量：1%</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/img2</t>
+  </si>
+  <si>
+    <t>[90,577][126,613]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/tv_signal</t>
+  </si>
+  <si>
+    <t>[168,567][906,624]</t>
+  </si>
+  <si>
+    <t>4G信号强度：96%</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/img_goto</t>
+  </si>
+  <si>
+    <t>[906,481][1038,637]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/recyclerView</t>
+  </si>
+  <si>
+    <t>[27,697][1053,1864]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/cardView</t>
+  </si>
+  <si>
+    <t>[42,712][525,1071]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/img</t>
+  </si>
+  <si>
+    <t>[90,754][210,874]</t>
+  </si>
+  <si>
+    <t>[90,910][270,971]</t>
+  </si>
+  <si>
+    <t>运动检测</t>
+  </si>
+  <si>
+    <t>[555,712][1038,1071]</t>
+  </si>
+  <si>
+    <t>[603,754][723,874]</t>
+  </si>
+  <si>
+    <t>[603,910][734,971]</t>
+  </si>
+  <si>
+    <t>AI分析</t>
+  </si>
+  <si>
+    <t>[603,971][1038,1032]</t>
+  </si>
+  <si>
+    <t>AI算法分析检测</t>
+  </si>
+  <si>
+    <t>[42,1101][525,1460]</t>
+  </si>
+  <si>
+    <t>[90,1143][210,1263]</t>
+  </si>
+  <si>
+    <t>[90,1299][270,1360]</t>
+  </si>
+  <si>
+    <t>[90,1360][525,1421]</t>
+  </si>
+  <si>
+    <t>未开启</t>
+  </si>
+  <si>
+    <t>[555,1101][1038,1460]</t>
+  </si>
+  <si>
+    <t>[603,1143][723,1263]</t>
+  </si>
+  <si>
+    <t>[603,1299][783,1360]</t>
+  </si>
+  <si>
+    <t>[42,1490][525,1849]</t>
+  </si>
+  <si>
+    <t>[90,1532][210,1652]</t>
+  </si>
+  <si>
+    <t>[90,1688][270,1749]</t>
+  </si>
+  <si>
+    <t>录像模式</t>
+  </si>
+  <si>
+    <t>[90,1749][525,1810]</t>
+  </si>
+  <si>
+    <t>已设置混合录像</t>
+  </si>
+  <si>
+    <t>[555,1490][1038,1849]</t>
+  </si>
+  <si>
+    <t>[603,1532][723,1652]</t>
+  </si>
+  <si>
+    <t>[603,1688][783,1749]</t>
+  </si>
+  <si>
+    <t>侦测设置</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/layout2</t>
+  </si>
+  <si>
+    <t>[42,1900][1038,2264]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/arrow_install</t>
+  </si>
+  <si>
+    <t>[42,1900][1038,2051]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/arrow_view_layout</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/arrow_view_name_layout</t>
+  </si>
+  <si>
+    <t>[90,1945][555,2006]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/image</t>
+  </si>
+  <si>
+    <t>[90,1948][144,2002]</t>
+  </si>
+  <si>
+    <t>[186,1945][366,2006]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/arrow_view_value_layout</t>
+  </si>
+  <si>
+    <t>[570,1945][990,2006]</t>
+  </si>
+  <si>
+    <t>[570,1947][945,2004]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/arrow_view_right_arrow_icon</t>
+  </si>
+  <si>
+    <t>[966,1957][990,1993]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/arrow_light</t>
+  </si>
+  <si>
+    <t>[42,2051][1038,2202]</t>
+  </si>
+  <si>
+    <t>[90,2096][555,2157]</t>
+  </si>
+  <si>
+    <t>[90,2099][144,2153]</t>
+  </si>
+  <si>
+    <t>[186,2096][501,2157]</t>
+  </si>
+  <si>
+    <t>灯光及夜视设置</t>
+  </si>
+  <si>
+    <t>[570,2096][990,2157]</t>
+  </si>
+  <si>
+    <t>[570,2098][945,2155]</t>
+  </si>
+  <si>
+    <t>[966,2108][990,2144]</t>
+  </si>
+  <si>
+    <t>com.zwcode.p6slite:id/arrow_sound</t>
+  </si>
+  <si>
+    <t>[42,2202][1038,2264]</t>
+  </si>
+  <si>
+    <t>[90,2247][555,2264]</t>
+  </si>
+  <si>
+    <t>[90,2250][144,2264]</t>
+  </si>
+  <si>
+    <t>[186,2247][366,2264]</t>
+  </si>
+  <si>
+    <t>声音设置</t>
+  </si>
+  <si>
+    <t>[570,2247][990,2264]</t>
+  </si>
+  <si>
+    <t>[570,2249][945,2264]</t>
+  </si>
+  <si>
+    <t>[966,2259][990,2264]</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>获取电量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文本</t>
   </si>
 </sst>
 </file>
@@ -3262,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I474"/>
+  <dimension ref="A1:I597"/>
   <sheetViews>
-    <sheetView topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="I332" sqref="I332"/>
+    <sheetView topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="H490" sqref="H490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10651,6 +10998,1791 @@
         <v>10</v>
       </c>
     </row>
+    <row r="475" spans="1:8">
+      <c r="A475" t="s">
+        <v>929</v>
+      </c>
+      <c r="C475" t="s">
+        <v>783</v>
+      </c>
+      <c r="D475" t="s">
+        <v>784</v>
+      </c>
+      <c r="H475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="A476" t="s">
+        <v>929</v>
+      </c>
+      <c r="C476" t="s">
+        <v>824</v>
+      </c>
+      <c r="D476" t="s">
+        <v>855</v>
+      </c>
+      <c r="H476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="A477" t="s">
+        <v>929</v>
+      </c>
+      <c r="C477" t="s">
+        <v>856</v>
+      </c>
+      <c r="D477" t="s">
+        <v>855</v>
+      </c>
+      <c r="H477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="A478" t="s">
+        <v>929</v>
+      </c>
+      <c r="C478" t="s">
+        <v>857</v>
+      </c>
+      <c r="D478" t="s">
+        <v>607</v>
+      </c>
+      <c r="H478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="A479" t="s">
+        <v>929</v>
+      </c>
+      <c r="C479" t="s">
+        <v>858</v>
+      </c>
+      <c r="D479" t="s">
+        <v>607</v>
+      </c>
+      <c r="H479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
+      <c r="A480" t="s">
+        <v>929</v>
+      </c>
+      <c r="C480" t="s">
+        <v>679</v>
+      </c>
+      <c r="D480" t="s">
+        <v>859</v>
+      </c>
+      <c r="H480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481" t="s">
+        <v>929</v>
+      </c>
+      <c r="C481" t="s">
+        <v>860</v>
+      </c>
+      <c r="D481" t="s">
+        <v>861</v>
+      </c>
+      <c r="H481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="A482" t="s">
+        <v>929</v>
+      </c>
+      <c r="C482" t="s">
+        <v>81</v>
+      </c>
+      <c r="D482" t="s">
+        <v>281</v>
+      </c>
+      <c r="E482" t="s">
+        <v>929</v>
+      </c>
+      <c r="H482">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" t="s">
+        <v>929</v>
+      </c>
+      <c r="C483" t="s">
+        <v>868</v>
+      </c>
+      <c r="D483" t="s">
+        <v>869</v>
+      </c>
+      <c r="H483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" t="s">
+        <v>929</v>
+      </c>
+      <c r="C484" t="s">
+        <v>930</v>
+      </c>
+      <c r="D484" t="s">
+        <v>871</v>
+      </c>
+      <c r="H484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" t="s">
+        <v>929</v>
+      </c>
+      <c r="C485" t="s">
+        <v>931</v>
+      </c>
+      <c r="D485" t="s">
+        <v>871</v>
+      </c>
+      <c r="H485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486" t="s">
+        <v>929</v>
+      </c>
+      <c r="C486" t="s">
+        <v>872</v>
+      </c>
+      <c r="D486" t="s">
+        <v>871</v>
+      </c>
+      <c r="H486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" t="s">
+        <v>929</v>
+      </c>
+      <c r="C487" t="s">
+        <v>932</v>
+      </c>
+      <c r="D487" t="s">
+        <v>933</v>
+      </c>
+      <c r="H487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488" t="s">
+        <v>929</v>
+      </c>
+      <c r="C488" t="s">
+        <v>934</v>
+      </c>
+      <c r="D488" t="s">
+        <v>935</v>
+      </c>
+      <c r="H488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" t="s">
+        <v>929</v>
+      </c>
+      <c r="C489" t="s">
+        <v>936</v>
+      </c>
+      <c r="D489" t="s">
+        <v>935</v>
+      </c>
+      <c r="H489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" t="s">
+        <v>929</v>
+      </c>
+      <c r="C490" t="s">
+        <v>284</v>
+      </c>
+      <c r="D490" t="s">
+        <v>937</v>
+      </c>
+      <c r="E490" t="s">
+        <v>938</v>
+      </c>
+      <c r="H490">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" t="s">
+        <v>929</v>
+      </c>
+      <c r="C491" t="s">
+        <v>939</v>
+      </c>
+      <c r="D491" t="s">
+        <v>940</v>
+      </c>
+      <c r="H491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" t="s">
+        <v>929</v>
+      </c>
+      <c r="C492" t="s">
+        <v>941</v>
+      </c>
+      <c r="D492" t="s">
+        <v>940</v>
+      </c>
+      <c r="H492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" t="s">
+        <v>929</v>
+      </c>
+      <c r="C493" t="s">
+        <v>785</v>
+      </c>
+      <c r="D493" t="s">
+        <v>786</v>
+      </c>
+      <c r="H493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" t="s">
+        <v>929</v>
+      </c>
+      <c r="C494" t="s">
+        <v>787</v>
+      </c>
+      <c r="D494" t="s">
+        <v>786</v>
+      </c>
+      <c r="H494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" t="s">
+        <v>929</v>
+      </c>
+      <c r="C495" t="s">
+        <v>788</v>
+      </c>
+      <c r="D495" t="s">
+        <v>786</v>
+      </c>
+      <c r="H495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="A496" t="s">
+        <v>929</v>
+      </c>
+      <c r="C496" t="s">
+        <v>789</v>
+      </c>
+      <c r="D496" t="s">
+        <v>790</v>
+      </c>
+      <c r="H496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497" t="s">
+        <v>929</v>
+      </c>
+      <c r="C497" t="s">
+        <v>10</v>
+      </c>
+      <c r="D497" t="s">
+        <v>11</v>
+      </c>
+      <c r="E497" t="s">
+        <v>942</v>
+      </c>
+      <c r="H497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" t="s">
+        <v>929</v>
+      </c>
+      <c r="C498" t="s">
+        <v>792</v>
+      </c>
+      <c r="D498" t="s">
+        <v>793</v>
+      </c>
+      <c r="H498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" t="s">
+        <v>929</v>
+      </c>
+      <c r="C499" t="s">
+        <v>794</v>
+      </c>
+      <c r="D499" t="s">
+        <v>793</v>
+      </c>
+      <c r="H499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" t="s">
+        <v>929</v>
+      </c>
+      <c r="C500" t="s">
+        <v>795</v>
+      </c>
+      <c r="D500" t="s">
+        <v>793</v>
+      </c>
+      <c r="H500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" t="s">
+        <v>929</v>
+      </c>
+      <c r="C501" t="s">
+        <v>796</v>
+      </c>
+      <c r="D501" t="s">
+        <v>797</v>
+      </c>
+      <c r="H501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="A502" t="s">
+        <v>929</v>
+      </c>
+      <c r="C502" t="s">
+        <v>798</v>
+      </c>
+      <c r="D502" t="s">
+        <v>799</v>
+      </c>
+      <c r="H502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="A503" t="s">
+        <v>929</v>
+      </c>
+      <c r="C503" t="s">
+        <v>800</v>
+      </c>
+      <c r="D503" t="s">
+        <v>943</v>
+      </c>
+      <c r="H503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" t="s">
+        <v>929</v>
+      </c>
+      <c r="C504" t="s">
+        <v>802</v>
+      </c>
+      <c r="D504" t="s">
+        <v>944</v>
+      </c>
+      <c r="H504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="A505" t="s">
+        <v>929</v>
+      </c>
+      <c r="C505" t="s">
+        <v>804</v>
+      </c>
+      <c r="D505" t="s">
+        <v>945</v>
+      </c>
+      <c r="H505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="A506" t="s">
+        <v>929</v>
+      </c>
+      <c r="C506" t="s">
+        <v>806</v>
+      </c>
+      <c r="D506" t="s">
+        <v>946</v>
+      </c>
+      <c r="H506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" t="s">
+        <v>929</v>
+      </c>
+      <c r="C507" t="s">
+        <v>808</v>
+      </c>
+      <c r="D507" t="s">
+        <v>946</v>
+      </c>
+      <c r="H507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="A508" t="s">
+        <v>929</v>
+      </c>
+      <c r="C508" t="s">
+        <v>809</v>
+      </c>
+      <c r="D508" t="s">
+        <v>947</v>
+      </c>
+      <c r="H508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="A509" t="s">
+        <v>929</v>
+      </c>
+      <c r="C509" t="s">
+        <v>848</v>
+      </c>
+      <c r="D509" t="s">
+        <v>948</v>
+      </c>
+      <c r="H509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510" t="s">
+        <v>929</v>
+      </c>
+      <c r="C510" t="s">
+        <v>819</v>
+      </c>
+      <c r="D510" t="s">
+        <v>820</v>
+      </c>
+      <c r="H510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" t="s">
+        <v>929</v>
+      </c>
+      <c r="C511" t="s">
+        <v>821</v>
+      </c>
+      <c r="D511" t="s">
+        <v>822</v>
+      </c>
+      <c r="H511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="A512" t="s">
+        <v>929</v>
+      </c>
+      <c r="C512" t="s">
+        <v>823</v>
+      </c>
+      <c r="D512" t="s">
+        <v>822</v>
+      </c>
+      <c r="H512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" t="s">
+        <v>280</v>
+      </c>
+      <c r="C513" t="s">
+        <v>783</v>
+      </c>
+      <c r="D513" t="s">
+        <v>784</v>
+      </c>
+      <c r="H513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514" t="s">
+        <v>280</v>
+      </c>
+      <c r="C514" t="s">
+        <v>824</v>
+      </c>
+      <c r="D514" t="s">
+        <v>855</v>
+      </c>
+      <c r="H514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="A515" t="s">
+        <v>280</v>
+      </c>
+      <c r="C515" t="s">
+        <v>856</v>
+      </c>
+      <c r="D515" t="s">
+        <v>855</v>
+      </c>
+      <c r="H515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516" t="s">
+        <v>280</v>
+      </c>
+      <c r="C516" t="s">
+        <v>857</v>
+      </c>
+      <c r="D516" t="s">
+        <v>607</v>
+      </c>
+      <c r="H516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="A517" t="s">
+        <v>280</v>
+      </c>
+      <c r="C517" t="s">
+        <v>858</v>
+      </c>
+      <c r="D517" t="s">
+        <v>607</v>
+      </c>
+      <c r="H517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518" t="s">
+        <v>280</v>
+      </c>
+      <c r="C518" t="s">
+        <v>679</v>
+      </c>
+      <c r="D518" t="s">
+        <v>859</v>
+      </c>
+      <c r="H518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="A519" t="s">
+        <v>280</v>
+      </c>
+      <c r="C519" t="s">
+        <v>860</v>
+      </c>
+      <c r="D519" t="s">
+        <v>861</v>
+      </c>
+      <c r="H519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="A520" t="s">
+        <v>280</v>
+      </c>
+      <c r="C520" t="s">
+        <v>81</v>
+      </c>
+      <c r="D520" t="s">
+        <v>953</v>
+      </c>
+      <c r="E520" t="s">
+        <v>954</v>
+      </c>
+      <c r="H520">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="A521" t="s">
+        <v>280</v>
+      </c>
+      <c r="C521" t="s">
+        <v>868</v>
+      </c>
+      <c r="D521" t="s">
+        <v>869</v>
+      </c>
+      <c r="H521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522" t="s">
+        <v>280</v>
+      </c>
+      <c r="C522" t="s">
+        <v>955</v>
+      </c>
+      <c r="D522" t="s">
+        <v>956</v>
+      </c>
+      <c r="H522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523" t="s">
+        <v>280</v>
+      </c>
+      <c r="C523" t="s">
+        <v>531</v>
+      </c>
+      <c r="D523" t="s">
+        <v>957</v>
+      </c>
+      <c r="E523" t="s">
+        <v>958</v>
+      </c>
+      <c r="H523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524" t="s">
+        <v>280</v>
+      </c>
+      <c r="C524" t="s">
+        <v>510</v>
+      </c>
+      <c r="D524" t="s">
+        <v>959</v>
+      </c>
+      <c r="E524" t="s">
+        <v>960</v>
+      </c>
+      <c r="H524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525" t="s">
+        <v>280</v>
+      </c>
+      <c r="C525" t="s">
+        <v>961</v>
+      </c>
+      <c r="D525" t="s">
+        <v>962</v>
+      </c>
+      <c r="H525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526" t="s">
+        <v>280</v>
+      </c>
+      <c r="C526" t="s">
+        <v>963</v>
+      </c>
+      <c r="D526" t="s">
+        <v>964</v>
+      </c>
+      <c r="H526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527" t="s">
+        <v>280</v>
+      </c>
+      <c r="C527" t="s">
+        <v>965</v>
+      </c>
+      <c r="D527" t="s">
+        <v>966</v>
+      </c>
+      <c r="E527" t="s">
+        <v>967</v>
+      </c>
+      <c r="H527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" t="s">
+        <v>280</v>
+      </c>
+      <c r="C528" t="s">
+        <v>968</v>
+      </c>
+      <c r="D528" t="s">
+        <v>969</v>
+      </c>
+      <c r="H528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529" t="s">
+        <v>280</v>
+      </c>
+      <c r="C529" t="s">
+        <v>970</v>
+      </c>
+      <c r="D529" t="s">
+        <v>971</v>
+      </c>
+      <c r="E529" t="s">
+        <v>972</v>
+      </c>
+      <c r="H529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="A530" t="s">
+        <v>280</v>
+      </c>
+      <c r="C530" t="s">
+        <v>973</v>
+      </c>
+      <c r="D530" t="s">
+        <v>974</v>
+      </c>
+      <c r="H530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="A531" t="s">
+        <v>280</v>
+      </c>
+      <c r="C531" t="s">
+        <v>975</v>
+      </c>
+      <c r="D531" t="s">
+        <v>976</v>
+      </c>
+      <c r="H531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532" t="s">
+        <v>280</v>
+      </c>
+      <c r="C532" t="s">
+        <v>977</v>
+      </c>
+      <c r="D532" t="s">
+        <v>978</v>
+      </c>
+      <c r="H532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" t="s">
+        <v>280</v>
+      </c>
+      <c r="C533" t="s">
+        <v>979</v>
+      </c>
+      <c r="D533" t="s">
+        <v>980</v>
+      </c>
+      <c r="H533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534" t="s">
+        <v>280</v>
+      </c>
+      <c r="C534" t="s">
+        <v>284</v>
+      </c>
+      <c r="D534" t="s">
+        <v>981</v>
+      </c>
+      <c r="E534" t="s">
+        <v>982</v>
+      </c>
+      <c r="H534">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535" t="s">
+        <v>280</v>
+      </c>
+      <c r="C535" t="s">
+        <v>977</v>
+      </c>
+      <c r="D535" t="s">
+        <v>983</v>
+      </c>
+      <c r="H535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" t="s">
+        <v>280</v>
+      </c>
+      <c r="C536" t="s">
+        <v>979</v>
+      </c>
+      <c r="D536" t="s">
+        <v>984</v>
+      </c>
+      <c r="H536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" t="s">
+        <v>280</v>
+      </c>
+      <c r="C537" t="s">
+        <v>284</v>
+      </c>
+      <c r="D537" t="s">
+        <v>985</v>
+      </c>
+      <c r="E537" t="s">
+        <v>986</v>
+      </c>
+      <c r="H537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" t="s">
+        <v>280</v>
+      </c>
+      <c r="C538" t="s">
+        <v>928</v>
+      </c>
+      <c r="D538" t="s">
+        <v>987</v>
+      </c>
+      <c r="E538" t="s">
+        <v>988</v>
+      </c>
+      <c r="H538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" t="s">
+        <v>280</v>
+      </c>
+      <c r="C539" t="s">
+        <v>977</v>
+      </c>
+      <c r="D539" t="s">
+        <v>989</v>
+      </c>
+      <c r="H539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" t="s">
+        <v>280</v>
+      </c>
+      <c r="C540" t="s">
+        <v>979</v>
+      </c>
+      <c r="D540" t="s">
+        <v>990</v>
+      </c>
+      <c r="H540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" t="s">
+        <v>280</v>
+      </c>
+      <c r="C541" t="s">
+        <v>284</v>
+      </c>
+      <c r="D541" t="s">
+        <v>991</v>
+      </c>
+      <c r="E541" t="s">
+        <v>296</v>
+      </c>
+      <c r="H541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" t="s">
+        <v>280</v>
+      </c>
+      <c r="C542" t="s">
+        <v>928</v>
+      </c>
+      <c r="D542" t="s">
+        <v>992</v>
+      </c>
+      <c r="E542" t="s">
+        <v>993</v>
+      </c>
+      <c r="H542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" t="s">
+        <v>280</v>
+      </c>
+      <c r="C543" t="s">
+        <v>977</v>
+      </c>
+      <c r="D543" t="s">
+        <v>994</v>
+      </c>
+      <c r="H543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" t="s">
+        <v>280</v>
+      </c>
+      <c r="C544" t="s">
+        <v>979</v>
+      </c>
+      <c r="D544" t="s">
+        <v>995</v>
+      </c>
+      <c r="H544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" t="s">
+        <v>280</v>
+      </c>
+      <c r="C545" t="s">
+        <v>284</v>
+      </c>
+      <c r="D545" t="s">
+        <v>996</v>
+      </c>
+      <c r="E545" t="s">
+        <v>294</v>
+      </c>
+      <c r="H545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" t="s">
+        <v>280</v>
+      </c>
+      <c r="C546" t="s">
+        <v>977</v>
+      </c>
+      <c r="D546" t="s">
+        <v>997</v>
+      </c>
+      <c r="H546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" t="s">
+        <v>280</v>
+      </c>
+      <c r="C547" t="s">
+        <v>979</v>
+      </c>
+      <c r="D547" t="s">
+        <v>998</v>
+      </c>
+      <c r="H547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" t="s">
+        <v>280</v>
+      </c>
+      <c r="C548" t="s">
+        <v>284</v>
+      </c>
+      <c r="D548" t="s">
+        <v>999</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" t="s">
+        <v>280</v>
+      </c>
+      <c r="C549" t="s">
+        <v>928</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" t="s">
+        <v>280</v>
+      </c>
+      <c r="C550" t="s">
+        <v>977</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" t="s">
+        <v>280</v>
+      </c>
+      <c r="C551" t="s">
+        <v>979</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" t="s">
+        <v>280</v>
+      </c>
+      <c r="C552" t="s">
+        <v>284</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" t="s">
+        <v>280</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" t="s">
+        <v>280</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" t="s">
+        <v>280</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" t="s">
+        <v>280</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" t="s">
+        <v>280</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" t="s">
+        <v>280</v>
+      </c>
+      <c r="C558" t="s">
+        <v>284</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E558" t="s">
+        <v>929</v>
+      </c>
+      <c r="H558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" t="s">
+        <v>280</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" t="s">
+        <v>280</v>
+      </c>
+      <c r="C560" t="s">
+        <v>405</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" t="s">
+        <v>280</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="A562" t="s">
+        <v>280</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" t="s">
+        <v>280</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" t="s">
+        <v>280</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" t="s">
+        <v>280</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" t="s">
+        <v>280</v>
+      </c>
+      <c r="C566" t="s">
+        <v>284</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" t="s">
+        <v>280</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" t="s">
+        <v>280</v>
+      </c>
+      <c r="C568" t="s">
+        <v>405</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" t="s">
+        <v>280</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" t="s">
+        <v>280</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" t="s">
+        <v>280</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" t="s">
+        <v>280</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" t="s">
+        <v>280</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" t="s">
+        <v>280</v>
+      </c>
+      <c r="C574" t="s">
+        <v>284</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575" t="s">
+        <v>280</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576" t="s">
+        <v>280</v>
+      </c>
+      <c r="C576" t="s">
+        <v>405</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577" t="s">
+        <v>280</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" t="s">
+        <v>280</v>
+      </c>
+      <c r="C578" t="s">
+        <v>785</v>
+      </c>
+      <c r="D578" t="s">
+        <v>786</v>
+      </c>
+      <c r="H578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" t="s">
+        <v>280</v>
+      </c>
+      <c r="C579" t="s">
+        <v>787</v>
+      </c>
+      <c r="D579" t="s">
+        <v>786</v>
+      </c>
+      <c r="H579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580" t="s">
+        <v>280</v>
+      </c>
+      <c r="C580" t="s">
+        <v>788</v>
+      </c>
+      <c r="D580" t="s">
+        <v>786</v>
+      </c>
+      <c r="H580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" t="s">
+        <v>280</v>
+      </c>
+      <c r="C581" t="s">
+        <v>789</v>
+      </c>
+      <c r="D581" t="s">
+        <v>790</v>
+      </c>
+      <c r="H581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" t="s">
+        <v>280</v>
+      </c>
+      <c r="C582" t="s">
+        <v>10</v>
+      </c>
+      <c r="D582" t="s">
+        <v>11</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583" t="s">
+        <v>280</v>
+      </c>
+      <c r="C583" t="s">
+        <v>792</v>
+      </c>
+      <c r="D583" t="s">
+        <v>793</v>
+      </c>
+      <c r="H583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" t="s">
+        <v>280</v>
+      </c>
+      <c r="C584" t="s">
+        <v>794</v>
+      </c>
+      <c r="D584" t="s">
+        <v>793</v>
+      </c>
+      <c r="H584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" t="s">
+        <v>280</v>
+      </c>
+      <c r="C585" t="s">
+        <v>795</v>
+      </c>
+      <c r="D585" t="s">
+        <v>793</v>
+      </c>
+      <c r="H585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" t="s">
+        <v>280</v>
+      </c>
+      <c r="C586" t="s">
+        <v>796</v>
+      </c>
+      <c r="D586" t="s">
+        <v>797</v>
+      </c>
+      <c r="H586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" t="s">
+        <v>280</v>
+      </c>
+      <c r="C587" t="s">
+        <v>798</v>
+      </c>
+      <c r="D587" t="s">
+        <v>799</v>
+      </c>
+      <c r="H587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" t="s">
+        <v>280</v>
+      </c>
+      <c r="C588" t="s">
+        <v>800</v>
+      </c>
+      <c r="D588" t="s">
+        <v>943</v>
+      </c>
+      <c r="H588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" t="s">
+        <v>280</v>
+      </c>
+      <c r="C589" t="s">
+        <v>802</v>
+      </c>
+      <c r="D589" t="s">
+        <v>944</v>
+      </c>
+      <c r="H589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" t="s">
+        <v>280</v>
+      </c>
+      <c r="C590" t="s">
+        <v>804</v>
+      </c>
+      <c r="D590" t="s">
+        <v>945</v>
+      </c>
+      <c r="H590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" t="s">
+        <v>280</v>
+      </c>
+      <c r="C591" t="s">
+        <v>806</v>
+      </c>
+      <c r="D591" t="s">
+        <v>946</v>
+      </c>
+      <c r="H591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" t="s">
+        <v>280</v>
+      </c>
+      <c r="C592" t="s">
+        <v>808</v>
+      </c>
+      <c r="D592" t="s">
+        <v>946</v>
+      </c>
+      <c r="H592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" t="s">
+        <v>280</v>
+      </c>
+      <c r="C593" t="s">
+        <v>809</v>
+      </c>
+      <c r="D593" t="s">
+        <v>947</v>
+      </c>
+      <c r="H593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" t="s">
+        <v>280</v>
+      </c>
+      <c r="C594" t="s">
+        <v>848</v>
+      </c>
+      <c r="D594" t="s">
+        <v>948</v>
+      </c>
+      <c r="H594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" t="s">
+        <v>280</v>
+      </c>
+      <c r="C595" t="s">
+        <v>819</v>
+      </c>
+      <c r="D595" t="s">
+        <v>820</v>
+      </c>
+      <c r="H595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" t="s">
+        <v>280</v>
+      </c>
+      <c r="C596" t="s">
+        <v>821</v>
+      </c>
+      <c r="D596" t="s">
+        <v>822</v>
+      </c>
+      <c r="H596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" t="s">
+        <v>280</v>
+      </c>
+      <c r="C597" t="s">
+        <v>823</v>
+      </c>
+      <c r="D597" t="s">
+        <v>822</v>
+      </c>
+      <c r="H597">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10660,11 +12792,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11676,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1">
+    <row r="58" spans="1:8" ht="14.25">
       <c r="A58" t="s">
         <v>280</v>
       </c>
@@ -11696,17 +13828,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1">
+    <row r="59" spans="1:8" ht="14.25">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>949</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>949</v>
+      </c>
       <c r="F59" t="s">
         <v>739</v>
       </c>
@@ -11716,24 +13850,25 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1">
       <c r="A60" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B60" t="s">
-        <v>280</v>
+        <v>1041</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>688</v>
-      </c>
+        <v>965</v>
+      </c>
+      <c r="E60" s="4"/>
       <c r="F60" t="s">
-        <v>739</v>
+        <v>1042</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.25" thickBot="1">
+    <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s">
         <v>280</v>
@@ -11741,6 +13876,7 @@
       <c r="C61" s="3" t="s">
         <v>688</v>
       </c>
+      <c r="E61" s="2"/>
       <c r="F61" t="s">
         <v>739</v>
       </c>
@@ -11748,9 +13884,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.25">
+    <row r="62" spans="1:8" ht="15" thickBot="1">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s">
         <v>280</v>
@@ -11765,15 +13901,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25">
+    <row r="63" spans="1:8" ht="14.25" thickBot="1">
       <c r="A63" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B63" t="s">
         <v>280</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>679</v>
+      <c r="C63" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="F63" t="s">
         <v>739</v>
@@ -11782,15 +13918,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1">
+    <row r="64" spans="1:8" ht="14.25">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B64" t="s">
         <v>280</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="F64" t="s">
         <v>739</v>
@@ -11799,15 +13935,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickBot="1">
+    <row r="65" spans="1:9" ht="14.25">
       <c r="A65" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B65" t="s">
         <v>280</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>688</v>
+      <c r="C65" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="F65" t="s">
         <v>739</v>
@@ -11816,9 +13952,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.25">
+    <row r="66" spans="1:9" ht="15" thickBot="1">
       <c r="A66" t="s">
-        <v>469</v>
+        <v>298</v>
       </c>
       <c r="B66" t="s">
         <v>280</v>
@@ -11833,15 +13969,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.25">
+    <row r="67" spans="1:9" ht="14.25" thickBot="1">
       <c r="A67" t="s">
-        <v>488</v>
+        <v>300</v>
       </c>
       <c r="B67" t="s">
         <v>280</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>679</v>
+      <c r="C67" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="F67" t="s">
         <v>739</v>
@@ -11852,7 +13988,7 @@
     </row>
     <row r="68" spans="1:9" ht="14.25">
       <c r="A68" t="s">
-        <v>310</v>
+        <v>469</v>
       </c>
       <c r="B68" t="s">
         <v>280</v>
@@ -11869,13 +14005,13 @@
     </row>
     <row r="69" spans="1:9" ht="14.25">
       <c r="A69" t="s">
-        <v>530</v>
+        <v>488</v>
       </c>
       <c r="B69" t="s">
         <v>280</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F69" t="s">
         <v>739</v>
@@ -11886,16 +14022,13 @@
     </row>
     <row r="70" spans="1:9" ht="14.25">
       <c r="A70" t="s">
-        <v>549</v>
+        <v>310</v>
       </c>
       <c r="B70" t="s">
         <v>280</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>555</v>
+        <v>679</v>
       </c>
       <c r="F70" t="s">
         <v>739</v>
@@ -11906,16 +14039,13 @@
     </row>
     <row r="71" spans="1:9" ht="14.25">
       <c r="A71" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="B71" t="s">
         <v>280</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>575</v>
+        <v>688</v>
       </c>
       <c r="F71" t="s">
         <v>739</v>
@@ -11926,16 +14056,16 @@
     </row>
     <row r="72" spans="1:9" ht="14.25">
       <c r="A72" t="s">
-        <v>674</v>
+        <v>549</v>
       </c>
       <c r="B72" t="s">
-        <v>923</v>
+        <v>280</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>35</v>
+        <v>553</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="F72" t="s">
         <v>739</v>
@@ -11946,13 +14076,16 @@
     </row>
     <row r="73" spans="1:9" ht="14.25">
       <c r="A73" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>688</v>
+        <v>573</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="F73" t="s">
         <v>739</v>
@@ -11963,16 +14096,16 @@
     </row>
     <row r="74" spans="1:9" ht="14.25">
       <c r="A74" t="s">
-        <v>576</v>
+        <v>674</v>
       </c>
       <c r="B74" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>926</v>
+        <v>580</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>590</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
         <v>739</v>
@@ -11980,43 +14113,36 @@
       <c r="H74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="75" spans="1:9" ht="14.25">
       <c r="A75" t="s">
         <v>576</v>
       </c>
       <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F75" t="s">
+        <v>739</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.25">
+      <c r="A76" t="s">
+        <v>576</v>
+      </c>
+      <c r="B76" t="s">
         <v>927</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s">
-        <v>740</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" thickBot="1">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" t="s">
-        <v>838</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>839</v>
+      <c r="C76" s="2" t="s">
+        <v>926</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="F76" t="s">
         <v>739</v>
@@ -12024,36 +14150,43 @@
       <c r="H76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="14.25">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" thickBot="1">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>927</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>688</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="14.25">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" thickBot="1">
       <c r="A78" t="s">
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>689</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>594</v>
+        <v>838</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>839</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F78" t="s">
         <v>739</v>
@@ -12067,13 +14200,10 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>690</v>
+        <v>9</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>599</v>
+        <v>688</v>
       </c>
       <c r="F79" t="s">
         <v>739</v>
@@ -12084,13 +14214,16 @@
     </row>
     <row r="80" spans="1:9" ht="14.25">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>689</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>9</v>
+        <v>596</v>
       </c>
       <c r="F80" t="s">
         <v>739</v>
@@ -12101,13 +14234,16 @@
     </row>
     <row r="81" spans="1:9" ht="14.25">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>611</v>
+        <v>690</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F81" t="s">
         <v>739</v>
@@ -12118,13 +14254,13 @@
     </row>
     <row r="82" spans="1:9" ht="14.25">
       <c r="A82" t="s">
-        <v>611</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>688</v>
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>739</v>
@@ -12133,18 +14269,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" thickBot="1">
+    <row r="83" spans="1:9" ht="14.25">
       <c r="A83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" t="s">
         <v>611</v>
       </c>
-      <c r="B83" t="s">
-        <v>643</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="F83" t="s">
         <v>739</v>
@@ -12153,18 +14286,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" thickBot="1">
+    <row r="84" spans="1:9" ht="14.25">
       <c r="A84" t="s">
         <v>611</v>
       </c>
       <c r="B84" t="s">
-        <v>643</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>558</v>
+        <v>688</v>
       </c>
       <c r="F84" t="s">
         <v>739</v>
@@ -12173,36 +14303,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.25">
+    <row r="85" spans="1:9" ht="15" thickBot="1">
       <c r="A85" t="s">
+        <v>611</v>
+      </c>
+      <c r="B85" t="s">
         <v>643</v>
       </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E85" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>642</v>
+      </c>
       <c r="F85" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14.25">
+    <row r="86" spans="1:9" ht="15" thickBot="1">
       <c r="A86" t="s">
+        <v>611</v>
+      </c>
+      <c r="B86" t="s">
         <v>643</v>
       </c>
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>654</v>
+        <v>691</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="F86" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -12216,10 +14351,11 @@
         <v>9</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>692</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -12233,10 +14369,10 @@
         <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F88" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -12244,13 +14380,13 @@
     </row>
     <row r="89" spans="1:9" ht="14.25">
       <c r="A89" t="s">
-        <v>832</v>
+        <v>643</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>828</v>
+        <v>692</v>
       </c>
       <c r="F89" t="s">
         <v>739</v>
@@ -12261,13 +14397,13 @@
     </row>
     <row r="90" spans="1:9" ht="14.25">
       <c r="A90" t="s">
-        <v>833</v>
+        <v>643</v>
       </c>
       <c r="B90" t="s">
-        <v>835</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>834</v>
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>660</v>
       </c>
       <c r="F90" t="s">
         <v>739</v>
@@ -12278,13 +14414,13 @@
     </row>
     <row r="91" spans="1:9" ht="14.25">
       <c r="A91" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B91" t="s">
-        <v>837</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>836</v>
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>828</v>
       </c>
       <c r="F91" t="s">
         <v>739</v>
@@ -12293,18 +14429,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" ht="14.25">
       <c r="A92" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B92" t="s">
-        <v>841</v>
+        <v>835</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="F92" t="s">
-        <v>588</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
+        <v>739</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -12312,16 +14448,13 @@
     </row>
     <row r="93" spans="1:9" ht="14.25">
       <c r="A93" t="s">
-        <v>907</v>
+        <v>833</v>
       </c>
       <c r="B93" t="s">
-        <v>908</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="E93" t="s">
-        <v>908</v>
+        <v>837</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>836</v>
       </c>
       <c r="F93" t="s">
         <v>739</v>
@@ -12330,71 +14463,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
+        <v>840</v>
+      </c>
+      <c r="B94" t="s">
+        <v>841</v>
+      </c>
+      <c r="F94" t="s">
+        <v>588</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="14.25">
+      <c r="A95" t="s">
         <v>907</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>908</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E95" t="s">
+        <v>908</v>
+      </c>
+      <c r="F95" t="s">
+        <v>739</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="14.25">
+      <c r="A96" t="s">
+        <v>907</v>
+      </c>
+      <c r="B96" t="s">
+        <v>908</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F96" t="s">
         <v>739</v>
       </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" t="s">
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
         <v>280</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>841</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F97" t="s">
         <v>588</v>
       </c>
-      <c r="G95">
+      <c r="G97">
         <v>3</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" t="s">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
         <v>923</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" t="s">
         <v>841</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F98" t="s">
         <v>588</v>
       </c>
-      <c r="G96">
+      <c r="G98">
         <v>3</v>
       </c>
-      <c r="H96">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>949</v>
+      </c>
+      <c r="B99" t="s">
+        <v>951</v>
+      </c>
+      <c r="C99" t="s">
+        <v>952</v>
+      </c>
+      <c r="F99" t="s">
+        <v>739</v>
+      </c>
+      <c r="H99">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F91 F93:F94 F15:F35 F2:F12">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12 F95:F96 F15:F35 F99 F41:F59 F61:F93">
       <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F92 F13:F14 F36:F40 F95:F96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F94 F13:F14 F36:F40 F97:F98">
       <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,持续到页面跳转,截图"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60">
+      <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,获取文本"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
